--- a/hfc-files/articulated_onset_detection_hfc.xlsx
+++ b/hfc-files/articulated_onset_detection_hfc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonfal/kth-master/exjobb/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonfal/kth-master/exjobb/beyondPianoRoll/hfc-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18266558-2967-F04B-A85C-8727BA991FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89AC31E-7E2B-B64C-9E85-85A8854F7209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="500" windowWidth="22960" windowHeight="13320" activeTab="2" xr2:uid="{CC9CA039-07BB-8C49-B8AB-453913154E58}"/>
+    <workbookView xWindow="41460" yWindow="-3100" windowWidth="22960" windowHeight="13320" activeTab="2" xr2:uid="{CC9CA039-07BB-8C49-B8AB-453913154E58}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
   <si>
     <t>Description</t>
   </si>
@@ -210,6 +210,9 @@
   <si>
     <t>Fold</t>
   </si>
+  <si>
+    <t>Trained on slurtest-add also</t>
+  </si>
 </sst>
 </file>
 
@@ -218,7 +221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -287,6 +290,14 @@
     </font>
     <font>
       <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -395,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -490,6 +501,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1995,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECE7D5D-3168-FF40-A791-F8920FDD4CC6}">
-  <dimension ref="D1:O31"/>
+  <dimension ref="D1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2010,15 +2022,15 @@
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" customWidth="1"/>
+    <col min="12" max="13" width="5.33203125" customWidth="1"/>
     <col min="14" max="14" width="7.83203125" customWidth="1"/>
     <col min="15" max="15" width="7.33203125" customWidth="1"/>
-    <col min="16" max="16" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.1640625" customWidth="1"/>
     <col min="17" max="17" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="4:18" ht="34" x14ac:dyDescent="0.2">
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -2047,8 +2059,11 @@
       <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="4:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="R1" s="36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="4:18" ht="34" x14ac:dyDescent="0.2">
       <c r="D2" s="5">
         <v>1</v>
       </c>
@@ -2081,8 +2096,11 @@
       <c r="O2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="4:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="R2">
+        <v>91.04</v>
+      </c>
+    </row>
+    <row r="3" spans="4:18" ht="34" x14ac:dyDescent="0.2">
       <c r="D3" s="5">
         <v>2</v>
       </c>
@@ -2117,8 +2135,11 @@
       <c r="O3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="4:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="R3">
+        <v>91.73</v>
+      </c>
+    </row>
+    <row r="4" spans="4:18" ht="34" x14ac:dyDescent="0.2">
       <c r="D4" s="5">
         <v>3</v>
       </c>
@@ -2151,8 +2172,11 @@
       <c r="O4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="4:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="R4">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="5" spans="4:18" ht="34" x14ac:dyDescent="0.2">
       <c r="D5" s="5">
         <v>4</v>
       </c>
@@ -2185,8 +2209,11 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="4:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="R5">
+        <v>92.99</v>
+      </c>
+    </row>
+    <row r="6" spans="4:18" ht="17" x14ac:dyDescent="0.2">
       <c r="D6" s="5">
         <v>5</v>
       </c>
@@ -2221,8 +2248,11 @@
       <c r="O6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="4:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="R6">
+        <v>84.85</v>
+      </c>
+    </row>
+    <row r="7" spans="4:18" ht="17" x14ac:dyDescent="0.2">
       <c r="D7" s="5">
         <v>6</v>
       </c>
@@ -2255,8 +2285,11 @@
       <c r="O7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="4:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="R7">
+        <v>96.77</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18" ht="17" x14ac:dyDescent="0.2">
       <c r="D8" s="5">
         <v>7</v>
       </c>
@@ -2289,8 +2322,11 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="R8">
+        <v>94.99</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D9" s="5">
         <v>8</v>
       </c>
@@ -2321,8 +2357,11 @@
       <c r="O9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="R9">
+        <v>94.18</v>
+      </c>
+    </row>
+    <row r="10" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D10" s="5">
         <v>9</v>
       </c>
@@ -2353,8 +2392,11 @@
       <c r="O10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="4:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="R10">
+        <v>84.97</v>
+      </c>
+    </row>
+    <row r="11" spans="4:18" ht="17" x14ac:dyDescent="0.2">
       <c r="D11" s="5">
         <v>10</v>
       </c>
@@ -2391,8 +2433,11 @@
       <c r="O11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="4:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="R11">
+        <v>55.74</v>
+      </c>
+    </row>
+    <row r="12" spans="4:18" ht="34" x14ac:dyDescent="0.2">
       <c r="D12" s="5">
         <v>11</v>
       </c>
@@ -2429,8 +2474,11 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="4:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="R12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="4:18" ht="34" x14ac:dyDescent="0.2">
       <c r="D13" s="5">
         <v>12</v>
       </c>
@@ -2467,8 +2515,11 @@
       <c r="O13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="4:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="R13">
+        <v>67.42</v>
+      </c>
+    </row>
+    <row r="14" spans="4:18" ht="17" x14ac:dyDescent="0.2">
       <c r="D14" s="5">
         <v>13</v>
       </c>
@@ -2503,8 +2554,11 @@
       <c r="O14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="4:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="R14">
+        <v>83.17</v>
+      </c>
+    </row>
+    <row r="15" spans="4:18" ht="17" x14ac:dyDescent="0.2">
       <c r="D15" s="5">
         <v>14</v>
       </c>
@@ -2539,8 +2593,11 @@
       <c r="O15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="R15">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="16" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D16" s="5">
         <v>15</v>
       </c>
@@ -2571,8 +2628,11 @@
       <c r="O16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="R16">
+        <v>88.39</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D17" s="5">
         <v>16</v>
       </c>
@@ -2603,8 +2663,11 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="4:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="R17">
+        <v>84.01</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" ht="51" x14ac:dyDescent="0.2">
       <c r="D18" s="5">
         <v>17</v>
       </c>
@@ -2639,8 +2702,11 @@
       <c r="O18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="4:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="R18">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18" ht="17" x14ac:dyDescent="0.2">
       <c r="D19" s="5">
         <v>18</v>
       </c>
@@ -2677,8 +2743,11 @@
       <c r="O19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="4:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="R19">
+        <v>51.28</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" ht="17" x14ac:dyDescent="0.2">
       <c r="D20" s="5">
         <v>19</v>
       </c>
@@ -2713,8 +2782,11 @@
       <c r="O20">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="R20">
+        <v>92.34</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.2">
       <c r="H23" s="19">
         <f t="shared" ref="H23" si="5">K23/(M23+K23)</f>
         <v>0.7804663440387154</v>
@@ -2740,7 +2812,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.2">
       <c r="H24" s="19">
         <f t="shared" ref="H24:H25" si="8">K24/(M24+K24)</f>
         <v>0.5</v>
@@ -2766,7 +2838,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:18" x14ac:dyDescent="0.2">
       <c r="H25" s="19">
         <f t="shared" si="8"/>
         <v>0.80575539568345322</v>
@@ -2792,7 +2864,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.2">
       <c r="M26" s="35" t="s">
         <v>49</v>
       </c>
@@ -2803,7 +2875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:18" x14ac:dyDescent="0.2">
       <c r="M27">
         <v>0</v>
       </c>
@@ -2816,7 +2888,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:18" x14ac:dyDescent="0.2">
       <c r="M28">
         <v>1</v>
       </c>
@@ -2829,7 +2901,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:18" x14ac:dyDescent="0.2">
       <c r="M29">
         <v>2</v>
       </c>
@@ -2842,7 +2914,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:18" x14ac:dyDescent="0.2">
       <c r="M30">
         <v>3</v>
       </c>
@@ -2855,7 +2927,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:18" x14ac:dyDescent="0.2">
       <c r="M31">
         <v>4</v>
       </c>
